--- a/natmiOut/OldD7/LR-pairs_lrc2p/Adam9-Itgb1.xlsx
+++ b/natmiOut/OldD7/LR-pairs_lrc2p/Adam9-Itgb1.xlsx
@@ -531,52 +531,52 @@
         <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>9.93088636957088</v>
+        <v>11.20127533333333</v>
       </c>
       <c r="H2">
-        <v>9.93088636957088</v>
+        <v>33.603826</v>
       </c>
       <c r="I2">
-        <v>0.1115258177305983</v>
+        <v>0.1186573945858706</v>
       </c>
       <c r="J2">
-        <v>0.1115258177305983</v>
+        <v>0.1186573945858706</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>141.669759355589</v>
+        <v>153.5290173333333</v>
       </c>
       <c r="N2">
-        <v>141.669759355589</v>
+        <v>460.587052</v>
       </c>
       <c r="O2">
-        <v>0.313384689518856</v>
+        <v>0.3172206968818489</v>
       </c>
       <c r="P2">
-        <v>0.313384689518856</v>
+        <v>0.317220696881849</v>
       </c>
       <c r="Q2">
-        <v>1406.906282164806</v>
+        <v>1719.720794806772</v>
       </c>
       <c r="R2">
-        <v>1406.906282164806</v>
+        <v>15477.48715326095</v>
       </c>
       <c r="S2">
-        <v>0.03495048376284007</v>
+        <v>0.03764058140071441</v>
       </c>
       <c r="T2">
-        <v>0.03495048376284007</v>
+        <v>0.03764058140071441</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -593,52 +593,52 @@
         <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>9.93088636957088</v>
+        <v>11.20127533333333</v>
       </c>
       <c r="H3">
-        <v>9.93088636957088</v>
+        <v>33.603826</v>
       </c>
       <c r="I3">
-        <v>0.1115258177305983</v>
+        <v>0.1186573945858706</v>
       </c>
       <c r="J3">
-        <v>0.1115258177305983</v>
+        <v>0.1186573945858706</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>168.618111757968</v>
+        <v>168.7997026666667</v>
       </c>
       <c r="N3">
-        <v>168.618111757968</v>
+        <v>506.3991080000001</v>
       </c>
       <c r="O3">
-        <v>0.3729965720340717</v>
+        <v>0.3487728915577651</v>
       </c>
       <c r="P3">
-        <v>0.3729965720340717</v>
+        <v>0.3487728915577651</v>
       </c>
       <c r="Q3">
-        <v>1674.527307719984</v>
+        <v>1890.771945754135</v>
       </c>
       <c r="R3">
-        <v>1674.527307719984</v>
+        <v>17016.94751178721</v>
       </c>
       <c r="S3">
-        <v>0.04159874770680986</v>
+        <v>0.0413844826144248</v>
       </c>
       <c r="T3">
-        <v>0.04159874770680986</v>
+        <v>0.0413844826144248</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -655,52 +655,52 @@
         <v>22</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>9.93088636957088</v>
+        <v>11.20127533333333</v>
       </c>
       <c r="H4">
-        <v>9.93088636957088</v>
+        <v>33.603826</v>
       </c>
       <c r="I4">
-        <v>0.1115258177305983</v>
+        <v>0.1186573945858706</v>
       </c>
       <c r="J4">
-        <v>0.1115258177305983</v>
+        <v>0.1186573945858706</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>61.5935939390125</v>
+        <v>68.09032333333333</v>
       </c>
       <c r="N4">
-        <v>61.5935939390125</v>
+        <v>204.27097</v>
       </c>
       <c r="O4">
-        <v>0.1362498913016359</v>
+        <v>0.1406878008722904</v>
       </c>
       <c r="P4">
-        <v>0.1362498913016359</v>
+        <v>0.1406878008722904</v>
       </c>
       <c r="Q4">
-        <v>611.6789825018228</v>
+        <v>762.6984591923577</v>
       </c>
       <c r="R4">
-        <v>611.6789825018228</v>
+        <v>6864.286132731219</v>
       </c>
       <c r="S4">
-        <v>0.01519538054312008</v>
+        <v>0.01669364790152176</v>
       </c>
       <c r="T4">
-        <v>0.01519538054312008</v>
+        <v>0.01669364790152176</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -717,52 +717,52 @@
         <v>23</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>9.93088636957088</v>
+        <v>11.20127533333333</v>
       </c>
       <c r="H5">
-        <v>9.93088636957088</v>
+        <v>33.603826</v>
       </c>
       <c r="I5">
-        <v>0.1115258177305983</v>
+        <v>0.1186573945858706</v>
       </c>
       <c r="J5">
-        <v>0.1115258177305983</v>
+        <v>0.1186573945858706</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>80.1819703791251</v>
+        <v>93.562673</v>
       </c>
       <c r="N5">
-        <v>80.1819703791251</v>
+        <v>280.688019</v>
       </c>
       <c r="O5">
-        <v>0.1773688471454364</v>
+        <v>0.1933186106880956</v>
       </c>
       <c r="P5">
-        <v>0.1773688471454364</v>
+        <v>0.1933186106880956</v>
       </c>
       <c r="Q5">
-        <v>796.2780367233895</v>
+        <v>1048.021261195633</v>
       </c>
       <c r="R5">
-        <v>796.2780367233895</v>
+        <v>9432.191350760693</v>
       </c>
       <c r="S5">
-        <v>0.01978120571782829</v>
+        <v>0.02293868266920967</v>
       </c>
       <c r="T5">
-        <v>0.01978120571782829</v>
+        <v>0.02293868266920967</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -779,52 +779,52 @@
         <v>20</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>47.7323808856486</v>
+        <v>47.94465366666667</v>
       </c>
       <c r="H6">
-        <v>47.7323808856486</v>
+        <v>143.833961</v>
       </c>
       <c r="I6">
-        <v>0.5360440762681256</v>
+        <v>0.5078874966566524</v>
       </c>
       <c r="J6">
-        <v>0.5360440762681256</v>
+        <v>0.5078874966566524</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>141.669759355589</v>
+        <v>153.5290173333333</v>
       </c>
       <c r="N6">
-        <v>141.669759355589</v>
+        <v>460.587052</v>
       </c>
       <c r="O6">
-        <v>0.313384689518856</v>
+        <v>0.3172206968818489</v>
       </c>
       <c r="P6">
-        <v>0.313384689518856</v>
+        <v>0.317220696881849</v>
       </c>
       <c r="Q6">
-        <v>6762.234913539154</v>
+        <v>7360.895563830331</v>
       </c>
       <c r="R6">
-        <v>6762.234913539154</v>
+        <v>66248.06007447297</v>
       </c>
       <c r="S6">
-        <v>0.1679880064097085</v>
+        <v>0.161112425627001</v>
       </c>
       <c r="T6">
-        <v>0.1679880064097085</v>
+        <v>0.161112425627001</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -841,52 +841,52 @@
         <v>21</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>47.7323808856486</v>
+        <v>47.94465366666667</v>
       </c>
       <c r="H7">
-        <v>47.7323808856486</v>
+        <v>143.833961</v>
       </c>
       <c r="I7">
-        <v>0.5360440762681256</v>
+        <v>0.5078874966566524</v>
       </c>
       <c r="J7">
-        <v>0.5360440762681256</v>
+        <v>0.5078874966566524</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>168.618111757968</v>
+        <v>168.7997026666667</v>
       </c>
       <c r="N7">
-        <v>168.618111757968</v>
+        <v>506.3991080000001</v>
       </c>
       <c r="O7">
-        <v>0.3729965720340717</v>
+        <v>0.3487728915577651</v>
       </c>
       <c r="P7">
-        <v>0.3729965720340717</v>
+        <v>0.3487728915577651</v>
       </c>
       <c r="Q7">
-        <v>8048.543934650192</v>
+        <v>8093.043283389646</v>
       </c>
       <c r="R7">
-        <v>8048.543934650192</v>
+        <v>72837.38955050681</v>
       </c>
       <c r="S7">
-        <v>0.1999426029071813</v>
+        <v>0.1771373907949754</v>
       </c>
       <c r="T7">
-        <v>0.1999426029071813</v>
+        <v>0.1771373907949754</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -903,52 +903,52 @@
         <v>22</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>47.7323808856486</v>
+        <v>47.94465366666667</v>
       </c>
       <c r="H8">
-        <v>47.7323808856486</v>
+        <v>143.833961</v>
       </c>
       <c r="I8">
-        <v>0.5360440762681256</v>
+        <v>0.5078874966566524</v>
       </c>
       <c r="J8">
-        <v>0.5360440762681256</v>
+        <v>0.5078874966566524</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L8">
         <v>1</v>
       </c>
       <c r="M8">
-        <v>61.5935939390125</v>
+        <v>68.09032333333333</v>
       </c>
       <c r="N8">
-        <v>61.5935939390125</v>
+        <v>204.27097</v>
       </c>
       <c r="O8">
-        <v>0.1362498913016359</v>
+        <v>0.1406878008722904</v>
       </c>
       <c r="P8">
-        <v>0.1362498913016359</v>
+        <v>0.1406878008722904</v>
       </c>
       <c r="Q8">
-        <v>2940.008886012922</v>
+        <v>3264.566970268019</v>
       </c>
       <c r="R8">
-        <v>2940.008886012922</v>
+        <v>29381.10273241218</v>
       </c>
       <c r="S8">
-        <v>0.07303594712441794</v>
+        <v>0.07145357499515717</v>
       </c>
       <c r="T8">
-        <v>0.07303594712441794</v>
+        <v>0.07145357499515718</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -965,52 +965,52 @@
         <v>23</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="G9">
-        <v>47.7323808856486</v>
+        <v>47.94465366666667</v>
       </c>
       <c r="H9">
-        <v>47.7323808856486</v>
+        <v>143.833961</v>
       </c>
       <c r="I9">
-        <v>0.5360440762681256</v>
+        <v>0.5078874966566524</v>
       </c>
       <c r="J9">
-        <v>0.5360440762681256</v>
+        <v>0.5078874966566524</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L9">
         <v>1</v>
       </c>
       <c r="M9">
-        <v>80.1819703791251</v>
+        <v>93.562673</v>
       </c>
       <c r="N9">
-        <v>80.1819703791251</v>
+        <v>280.688019</v>
       </c>
       <c r="O9">
-        <v>0.1773688471454364</v>
+        <v>0.1933186106880956</v>
       </c>
       <c r="P9">
-        <v>0.1773688471454364</v>
+        <v>0.1933186106880956</v>
       </c>
       <c r="Q9">
-        <v>3827.276350298193</v>
+        <v>4485.829953112585</v>
       </c>
       <c r="R9">
-        <v>3827.276350298193</v>
+        <v>40372.46957801326</v>
       </c>
       <c r="S9">
-        <v>0.09507751982681782</v>
+        <v>0.09818410523951887</v>
       </c>
       <c r="T9">
-        <v>0.09507751982681782</v>
+        <v>0.09818410523951887</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1027,52 +1027,52 @@
         <v>20</v>
       </c>
       <c r="E10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F10">
         <v>1</v>
       </c>
       <c r="G10">
-        <v>23.1810414869128</v>
+        <v>25.59984766666667</v>
       </c>
       <c r="H10">
-        <v>23.1810414869128</v>
+        <v>76.799543</v>
       </c>
       <c r="I10">
-        <v>0.2603276798732102</v>
+        <v>0.2711844085184091</v>
       </c>
       <c r="J10">
-        <v>0.2603276798732102</v>
+        <v>0.2711844085184091</v>
       </c>
       <c r="K10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L10">
         <v>1</v>
       </c>
       <c r="M10">
-        <v>141.669759355589</v>
+        <v>153.5290173333333</v>
       </c>
       <c r="N10">
-        <v>141.669759355589</v>
+        <v>460.587052</v>
       </c>
       <c r="O10">
-        <v>0.313384689518856</v>
+        <v>0.3172206968818489</v>
       </c>
       <c r="P10">
-        <v>0.313384689518856</v>
+        <v>0.317220696881849</v>
       </c>
       <c r="Q10">
-        <v>3284.052569062861</v>
+        <v>3930.319456146359</v>
       </c>
       <c r="R10">
-        <v>3284.052569062861</v>
+        <v>35372.87510531723</v>
       </c>
       <c r="S10">
-        <v>0.08158270913023011</v>
+        <v>0.08602530705370175</v>
       </c>
       <c r="T10">
-        <v>0.08158270913023011</v>
+        <v>0.08602530705370176</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1089,52 +1089,52 @@
         <v>21</v>
       </c>
       <c r="E11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F11">
         <v>1</v>
       </c>
       <c r="G11">
-        <v>23.1810414869128</v>
+        <v>25.59984766666667</v>
       </c>
       <c r="H11">
-        <v>23.1810414869128</v>
+        <v>76.799543</v>
       </c>
       <c r="I11">
-        <v>0.2603276798732102</v>
+        <v>0.2711844085184091</v>
       </c>
       <c r="J11">
-        <v>0.2603276798732102</v>
+        <v>0.2711844085184091</v>
       </c>
       <c r="K11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L11">
         <v>1</v>
       </c>
       <c r="M11">
-        <v>168.618111757968</v>
+        <v>168.7997026666667</v>
       </c>
       <c r="N11">
-        <v>168.618111757968</v>
+        <v>506.3991080000001</v>
       </c>
       <c r="O11">
-        <v>0.3729965720340717</v>
+        <v>0.3487728915577651</v>
       </c>
       <c r="P11">
-        <v>0.3729965720340717</v>
+        <v>0.3487728915577651</v>
       </c>
       <c r="Q11">
-        <v>3908.743444106355</v>
+        <v>4321.246674445294</v>
       </c>
       <c r="R11">
-        <v>3908.743444106355</v>
+        <v>38891.22007000765</v>
       </c>
       <c r="S11">
-        <v>0.09710133219829059</v>
+        <v>0.09458177030434778</v>
       </c>
       <c r="T11">
-        <v>0.09710133219829059</v>
+        <v>0.09458177030434778</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1151,52 +1151,52 @@
         <v>22</v>
       </c>
       <c r="E12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F12">
         <v>1</v>
       </c>
       <c r="G12">
-        <v>23.1810414869128</v>
+        <v>25.59984766666667</v>
       </c>
       <c r="H12">
-        <v>23.1810414869128</v>
+        <v>76.799543</v>
       </c>
       <c r="I12">
-        <v>0.2603276798732102</v>
+        <v>0.2711844085184091</v>
       </c>
       <c r="J12">
-        <v>0.2603276798732102</v>
+        <v>0.2711844085184091</v>
       </c>
       <c r="K12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L12">
         <v>1</v>
       </c>
       <c r="M12">
-        <v>61.5935939390125</v>
+        <v>68.09032333333333</v>
       </c>
       <c r="N12">
-        <v>61.5935939390125</v>
+        <v>204.27097</v>
       </c>
       <c r="O12">
-        <v>0.1362498913016359</v>
+        <v>0.1406878008722904</v>
       </c>
       <c r="P12">
-        <v>0.1362498913016359</v>
+        <v>0.1406878008722904</v>
       </c>
       <c r="Q12">
-        <v>1427.80365642831</v>
+        <v>1743.101904907412</v>
       </c>
       <c r="R12">
-        <v>1427.80365642831</v>
+        <v>15687.91714416671</v>
       </c>
       <c r="S12">
-        <v>0.03546961808553196</v>
+        <v>0.03815233806530779</v>
       </c>
       <c r="T12">
-        <v>0.03546961808553196</v>
+        <v>0.0381523380653078</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1213,52 +1213,52 @@
         <v>23</v>
       </c>
       <c r="E13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F13">
         <v>1</v>
       </c>
       <c r="G13">
-        <v>23.1810414869128</v>
+        <v>25.59984766666667</v>
       </c>
       <c r="H13">
-        <v>23.1810414869128</v>
+        <v>76.799543</v>
       </c>
       <c r="I13">
-        <v>0.2603276798732102</v>
+        <v>0.2711844085184091</v>
       </c>
       <c r="J13">
-        <v>0.2603276798732102</v>
+        <v>0.2711844085184091</v>
       </c>
       <c r="K13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L13">
         <v>1</v>
       </c>
       <c r="M13">
-        <v>80.1819703791251</v>
+        <v>93.562673</v>
       </c>
       <c r="N13">
-        <v>80.1819703791251</v>
+        <v>280.688019</v>
       </c>
       <c r="O13">
-        <v>0.1773688471454364</v>
+        <v>0.1933186106880956</v>
       </c>
       <c r="P13">
-        <v>0.1773688471454364</v>
+        <v>0.1933186106880956</v>
       </c>
       <c r="Q13">
-        <v>1858.701581860912</v>
+        <v>2395.190176086146</v>
       </c>
       <c r="R13">
-        <v>1858.701581860912</v>
+        <v>21556.71158477532</v>
       </c>
       <c r="S13">
-        <v>0.04617402045915752</v>
+        <v>0.05242499309505182</v>
       </c>
       <c r="T13">
-        <v>0.04617402045915752</v>
+        <v>0.05242499309505182</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1275,52 +1275,52 @@
         <v>20</v>
       </c>
       <c r="E14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F14">
         <v>1</v>
       </c>
       <c r="G14">
-        <v>8.201318285323561</v>
+        <v>9.654369000000001</v>
       </c>
       <c r="H14">
-        <v>8.201318285323561</v>
+        <v>28.963107</v>
       </c>
       <c r="I14">
-        <v>0.09210242612806591</v>
+        <v>0.1022707002390678</v>
       </c>
       <c r="J14">
-        <v>0.09210242612806591</v>
+        <v>0.1022707002390678</v>
       </c>
       <c r="K14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L14">
         <v>1</v>
       </c>
       <c r="M14">
-        <v>141.669759355589</v>
+        <v>153.5290173333333</v>
       </c>
       <c r="N14">
-        <v>141.669759355589</v>
+        <v>460.587052</v>
       </c>
       <c r="O14">
-        <v>0.313384689518856</v>
+        <v>0.3172206968818489</v>
       </c>
       <c r="P14">
-        <v>0.313384689518856</v>
+        <v>0.317220696881849</v>
       </c>
       <c r="Q14">
-        <v>1161.878787880381</v>
+        <v>1482.225785543396</v>
       </c>
       <c r="R14">
-        <v>1161.878787880381</v>
+        <v>13340.03206989056</v>
       </c>
       <c r="S14">
-        <v>0.0288634902160773</v>
+        <v>0.03244238280043175</v>
       </c>
       <c r="T14">
-        <v>0.0288634902160773</v>
+        <v>0.03244238280043175</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1337,52 +1337,52 @@
         <v>21</v>
       </c>
       <c r="E15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F15">
         <v>1</v>
       </c>
       <c r="G15">
-        <v>8.201318285323561</v>
+        <v>9.654369000000001</v>
       </c>
       <c r="H15">
-        <v>8.201318285323561</v>
+        <v>28.963107</v>
       </c>
       <c r="I15">
-        <v>0.09210242612806591</v>
+        <v>0.1022707002390678</v>
       </c>
       <c r="J15">
-        <v>0.09210242612806591</v>
+        <v>0.1022707002390678</v>
       </c>
       <c r="K15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L15">
         <v>1</v>
       </c>
       <c r="M15">
-        <v>168.618111757968</v>
+        <v>168.7997026666667</v>
       </c>
       <c r="N15">
-        <v>168.618111757968</v>
+        <v>506.3991080000001</v>
       </c>
       <c r="O15">
-        <v>0.3729965720340717</v>
+        <v>0.3487728915577651</v>
       </c>
       <c r="P15">
-        <v>0.3729965720340717</v>
+        <v>0.3487728915577651</v>
       </c>
       <c r="Q15">
-        <v>1382.890803197355</v>
+        <v>1629.654616634284</v>
       </c>
       <c r="R15">
-        <v>1382.890803197355</v>
+        <v>14666.89154970856</v>
       </c>
       <c r="S15">
-        <v>0.0343538892217899</v>
+        <v>0.03566924784401709</v>
       </c>
       <c r="T15">
-        <v>0.0343538892217899</v>
+        <v>0.03566924784401709</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1399,52 +1399,52 @@
         <v>22</v>
       </c>
       <c r="E16">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F16">
         <v>1</v>
       </c>
       <c r="G16">
-        <v>8.201318285323561</v>
+        <v>9.654369000000001</v>
       </c>
       <c r="H16">
-        <v>8.201318285323561</v>
+        <v>28.963107</v>
       </c>
       <c r="I16">
-        <v>0.09210242612806591</v>
+        <v>0.1022707002390678</v>
       </c>
       <c r="J16">
-        <v>0.09210242612806591</v>
+        <v>0.1022707002390678</v>
       </c>
       <c r="K16">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L16">
         <v>1</v>
       </c>
       <c r="M16">
-        <v>61.5935939390125</v>
+        <v>68.09032333333333</v>
       </c>
       <c r="N16">
-        <v>61.5935939390125</v>
+        <v>204.27097</v>
       </c>
       <c r="O16">
-        <v>0.1362498913016359</v>
+        <v>0.1406878008722904</v>
       </c>
       <c r="P16">
-        <v>0.1362498913016359</v>
+        <v>0.1406878008722904</v>
       </c>
       <c r="Q16">
-        <v>505.1486682308177</v>
+        <v>657.3691067893101</v>
       </c>
       <c r="R16">
-        <v>505.1486682308177</v>
+        <v>5916.32196110379</v>
       </c>
       <c r="S16">
-        <v>0.01254894554856593</v>
+        <v>0.01438823991030367</v>
       </c>
       <c r="T16">
-        <v>0.01254894554856593</v>
+        <v>0.01438823991030367</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1461,52 +1461,52 @@
         <v>23</v>
       </c>
       <c r="E17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F17">
         <v>1</v>
       </c>
       <c r="G17">
-        <v>8.201318285323561</v>
+        <v>9.654369000000001</v>
       </c>
       <c r="H17">
-        <v>8.201318285323561</v>
+        <v>28.963107</v>
       </c>
       <c r="I17">
-        <v>0.09210242612806591</v>
+        <v>0.1022707002390678</v>
       </c>
       <c r="J17">
-        <v>0.09210242612806591</v>
+        <v>0.1022707002390678</v>
       </c>
       <c r="K17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L17">
         <v>1</v>
       </c>
       <c r="M17">
-        <v>80.1819703791251</v>
+        <v>93.562673</v>
       </c>
       <c r="N17">
-        <v>80.1819703791251</v>
+        <v>280.688019</v>
       </c>
       <c r="O17">
-        <v>0.1773688471454364</v>
+        <v>0.1933186106880956</v>
       </c>
       <c r="P17">
-        <v>0.1773688471454364</v>
+        <v>0.1933186106880956</v>
       </c>
       <c r="Q17">
-        <v>657.5978598235909</v>
+        <v>903.2885697683371</v>
       </c>
       <c r="R17">
-        <v>657.5978598235909</v>
+        <v>8129.597127915034</v>
       </c>
       <c r="S17">
-        <v>0.01633610114163277</v>
+        <v>0.01977082968431527</v>
       </c>
       <c r="T17">
-        <v>0.01633610114163277</v>
+        <v>0.01977082968431527</v>
       </c>
     </row>
   </sheetData>
